--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\New Input Files_2018_2019\4 Weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_C" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_C" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>
@@ -196,6 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,54 +244,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -307,10 +308,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -345,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,7 +503,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -511,13 +512,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -527,7 +528,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -536,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -545,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,12 +556,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -591,7 +592,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -610,7 +611,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -622,7 +623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -631,10 +632,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -679,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -707,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -721,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -736,13 +737,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -751,12 +752,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,16 +872,16 @@
       <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C6" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="C2:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -889,19 +890,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -942,7 +943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -977,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
@@ -1013,7 +1014,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>45</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>45</v>
       </c>
@@ -1123,19 +1124,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A6" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId6" ref="A2:A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1144,20 +1145,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="56.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.15" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -1241,9 +1242,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatC201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XCD HR_Documents\Project Imp Documents\Regression Testing_2018_2019\New Input Files_2018_2019\4 Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI4WeeklyCat_C" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI4WeeklyCat_C" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -120,9 +120,6 @@
     <t>FirstReportNameInApplication</t>
   </si>
   <si>
-    <t>TestResultExcelFilePath</t>
-  </si>
-  <si>
     <t>worksheetNo</t>
   </si>
   <si>
@@ -187,16 +184,12 @@
   </si>
   <si>
     <t>63,050.00</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,54 +237,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,10 +301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -346,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +496,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -512,13 +505,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -528,7 +521,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -537,7 +530,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -556,12 +549,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -592,7 +585,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -611,7 +604,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -623,7 +616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -632,10 +625,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -680,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -708,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -722,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -737,13 +730,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -752,12 +745,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="64.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,13 +778,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -802,13 +795,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -819,13 +812,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
@@ -837,13 +830,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -855,13 +848,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
@@ -872,37 +865,36 @@
       <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="C2:C6"/>
+    <ignoredError sqref="C2:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="60.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -931,234 +923,215 @@
         <v>33</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="53.25" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="45" r="3" s="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row customFormat="1" ht="45" r="4" s="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row customFormat="1" ht="45" r="5" s="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row customFormat="1" ht="45" r="6" s="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId6" ref="A2:A6"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A6" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" width="50" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1186,65 +1159,59 @@
       <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>39</v>
+      <c r="J1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="52.15" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>